--- a/slides/br_bp_pnd.xlsx
+++ b/slides/br_bp_pnd.xlsx
@@ -20,27 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Ano</t>
   </si>
   <si>
-    <t xml:space="preserve">Serviços</t>
+    <t xml:space="preserve">Balança comercial</t>
   </si>
   <si>
-    <t xml:space="preserve">Amortizações</t>
+    <t xml:space="preserve">Transações correntes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo do BP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="###\ ###\ ###\ ##0\ "/>
+    <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ##0\ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,16 +69,23 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -124,6 +136,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,147 +148,321 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="1" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>-1722.1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>-1672.5</v>
-      </c>
+      <c r="A2" s="2" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>-4690.3</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>-7122.4</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>6253.9</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>-936.3</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>-2432.6</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-1920.2</v>
-      </c>
+      <c r="A3" s="2" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>-3540.4</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-6700.2</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>6188.9</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>-950</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>-3162</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>-2172.1</v>
-      </c>
+      <c r="A4" s="2" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>-2254.7</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>-6017.1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6593.8</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1191.7</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>-3763</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>-2986.9</v>
-      </c>
+      <c r="A5" s="2" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4037.3</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5278</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>630</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>-4134.3</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>-4060.4</v>
-      </c>
+      <c r="A6" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>-1024.2</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-6990.4</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11891.4</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4262.4</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>-6037.2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>-5323.5</v>
-      </c>
+      <c r="A7" s="2" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>-2839.5</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-10741.6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7656.9</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3214.9</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>-7920.2</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>-6384.7</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1244,7 +1434,10 @@
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
